--- a/Digikey/PN-Mosfets.xlsx
+++ b/Digikey/PN-Mosfets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="10800" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="N-MOSFETS-SMD" sheetId="5" r:id="rId1"/>
@@ -3218,11 +3218,15 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5159,7 +5163,7 @@
         <v>204</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6291,6 +6295,7 @@
     <hyperlink ref="A29" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10370,7 +10375,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>

--- a/Digikey/PN-Mosfets.xlsx
+++ b/Digikey/PN-Mosfets.xlsx
@@ -5,11 +5,11 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Deiss\Documents\eagle\Extra_Eagle_Libs\DigiKey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\PCB Libraries\Library Expert 2015\Libraries\NVSL-Footprint-Library\Eagle\DigiKey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="10800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="N-MOSFETS-SMD" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2058" uniqueCount="786">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2059" uniqueCount="787">
   <si>
     <t>Datasheets</t>
   </si>
@@ -2372,9 +2372,6 @@
     <t>SOTFL50P160X60-6_HS</t>
   </si>
   <si>
-    <t>TO_92-3_Universal_HS</t>
-  </si>
-  <si>
     <t>TO456P990X238-3_HS</t>
   </si>
   <si>
@@ -2385,6 +2382,12 @@
   </si>
   <si>
     <t>I-PAK_TO-251AA_HS</t>
+  </si>
+  <si>
+    <t>TO254P1524X1054X470-3</t>
+  </si>
+  <si>
+    <t>TO-92-3_HS</t>
   </si>
 </sst>
 </file>
@@ -3218,14 +3221,15 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="24" max="24" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5000,7 +5004,7 @@
         <v>315</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5083,7 +5087,7 @@
         <v>767</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5326,7 +5330,7 @@
         <v>428</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5726,7 +5730,7 @@
         <v>481</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6303,8 +6307,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6475,7 +6479,7 @@
         <v>306</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6558,7 +6562,7 @@
         <v>767</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6638,7 +6642,7 @@
         <v>328</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6721,7 +6725,7 @@
         <v>767</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6801,7 +6805,7 @@
         <v>639</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6881,7 +6885,7 @@
         <v>639</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6961,7 +6965,7 @@
         <v>639</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7041,7 +7045,7 @@
         <v>639</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7121,7 +7125,7 @@
         <v>639</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7201,7 +7205,7 @@
         <v>639</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7281,7 +7285,7 @@
         <v>639</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7361,7 +7365,7 @@
         <v>639</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7441,7 +7445,7 @@
         <v>639</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7521,7 +7525,7 @@
         <v>639</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7601,7 +7605,7 @@
         <v>639</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7681,7 +7685,7 @@
         <v>639</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7761,7 +7765,7 @@
         <v>639</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7841,7 +7845,7 @@
         <v>639</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7921,7 +7925,7 @@
         <v>639</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -7929,6 +7933,7 @@
     <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7936,11 +7941,15 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="24" max="24" width="33.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -9877,7 +9886,7 @@
         <v>580</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10368,6 +10377,7 @@
     <hyperlink ref="A18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10375,8 +10385,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10549,6 +10559,9 @@
       <c r="AA2" s="1" t="s">
         <v>767</v>
       </c>
+      <c r="AC2" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10627,7 +10640,7 @@
         <v>639</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10707,7 +10720,7 @@
         <v>639</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10787,7 +10800,7 @@
         <v>639</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10867,7 +10880,7 @@
         <v>639</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10947,7 +10960,7 @@
         <v>639</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11027,10 +11040,11 @@
         <v>639</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Digikey/PN-Mosfets.xlsx
+++ b/Digikey/PN-Mosfets.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\PCB Libraries\Library Expert 2015\Libraries\NVSL-Footprint-Library\Eagle\DigiKey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Deiss\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,16 +18,11 @@
     <sheet name="P-MOSFETS-TH" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2059" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="787">
   <si>
     <t>Datasheets</t>
   </si>
@@ -2393,7 +2388,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2734,15 +2729,15 @@
   </fills>
   <borders count="10">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -2750,8 +2745,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -2759,8 +2754,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -2768,12 +2763,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -2783,12 +2778,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -2798,8 +2793,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2807,12 +2802,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -2822,12 +2817,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -2837,8 +2832,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2957,7 +2952,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3076,25 +3071,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3102,25 +3097,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3133,21 +3128,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -3161,7 +3156,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -3173,32 +3168,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3218,7 +3213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -6304,7 +6299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -7938,7 +7933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -10382,7 +10377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
